--- a/output/1Y_P13_KFSDIV.xlsx
+++ b/output/1Y_P13_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>11.0872</v>
       </c>
       <c r="C2" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D2" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>901.941</v>
+        <v>900.1386</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>11.0976</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E3" s="1">
-        <v>901.941</v>
+        <v>900.1386</v>
       </c>
       <c r="F3" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="H3" s="1">
-        <v>10009.3802</v>
+        <v>9969.3953</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10009.3802</v>
+        <v>9969.3953</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0009</v>
+        <v>-0.0031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>10.8505</v>
       </c>
       <c r="C4" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D4" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E4" s="1">
-        <v>1803.0367</v>
+        <v>1799.4354</v>
       </c>
       <c r="F4" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="H4" s="1">
-        <v>19563.8498</v>
+        <v>19485.7257</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19563.8498</v>
+        <v>19485.7257</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0924</v>
+        <v>11.1146</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>405.8734</v>
+        <v>405.0624</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9594.1266</v>
+        <v>-9594.937599999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0223</v>
+        <v>-0.0242</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>11.8576</v>
       </c>
       <c r="C5" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D5" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E5" s="1">
-        <v>2724.6532</v>
+        <v>2719.204</v>
       </c>
       <c r="F5" s="1">
-        <v>847.1442</v>
+        <v>845.4397</v>
       </c>
       <c r="H5" s="1">
-        <v>32307.8481</v>
+        <v>32178.7877</v>
       </c>
       <c r="I5" s="1">
-        <v>405.8734</v>
+        <v>405.0624</v>
       </c>
       <c r="J5" s="1">
-        <v>32713.7215</v>
+        <v>32583.8501</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.0106</v>
+        <v>11.0326</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10045.097</v>
+        <v>-10045.0069</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1065</v>
+        <v>0.1051</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>12.5699</v>
       </c>
       <c r="C6" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D6" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E6" s="1">
-        <v>3571.7974</v>
+        <v>3564.6436</v>
       </c>
       <c r="F6" s="1">
-        <v>799.139</v>
+        <v>797.5329</v>
       </c>
       <c r="H6" s="1">
-        <v>44897.1364</v>
+        <v>44717.7414</v>
       </c>
       <c r="I6" s="1">
-        <v>360.7764</v>
+        <v>360.0554</v>
       </c>
       <c r="J6" s="1">
-        <v>45257.9128</v>
+        <v>45077.7969</v>
       </c>
       <c r="K6" s="1">
-        <v>40045.097</v>
+        <v>40045.0069</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2115</v>
+        <v>11.2339</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10045.097</v>
+        <v>-10045.0069</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0596</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>13.5994</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E7" s="1">
-        <v>4370.9364</v>
+        <v>4362.1766</v>
       </c>
       <c r="F7" s="1">
-        <v>738.6427</v>
+        <v>737.1616</v>
       </c>
       <c r="H7" s="1">
-        <v>59442.1125</v>
+        <v>59204.3326</v>
       </c>
       <c r="I7" s="1">
-        <v>315.6793</v>
+        <v>315.0485</v>
       </c>
       <c r="J7" s="1">
-        <v>59757.7918</v>
+        <v>59519.3812</v>
       </c>
       <c r="K7" s="1">
-        <v>50090.1941</v>
+        <v>50090.0139</v>
       </c>
       <c r="L7" s="1">
-        <v>11.4598</v>
+        <v>11.4828</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1607.3088</v>
+        <v>1604.0896</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8437.788200000001</v>
+        <v>-8440.917299999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0814</v>
+        <v>0.0806</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>14.6663</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E8" s="1">
-        <v>5109.5791</v>
+        <v>5099.3382</v>
       </c>
       <c r="F8" s="1">
-        <v>703.1754</v>
+        <v>701.726</v>
       </c>
       <c r="H8" s="1">
-        <v>74938.6195</v>
+        <v>74639.01330000001</v>
       </c>
       <c r="I8" s="1">
-        <v>1877.8911</v>
+        <v>1874.1312</v>
       </c>
       <c r="J8" s="1">
-        <v>76816.51059999999</v>
+        <v>76513.14449999999</v>
       </c>
       <c r="K8" s="1">
-        <v>60135.2911</v>
+        <v>60135.0208</v>
       </c>
       <c r="L8" s="1">
-        <v>11.7691</v>
+        <v>11.7927</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10312.9819</v>
+        <v>-10312.3552</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1012</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>14.701</v>
       </c>
       <c r="C9" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D9" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E9" s="1">
-        <v>5812.7545</v>
+        <v>5801.0642</v>
       </c>
       <c r="F9" s="1">
-        <v>701.5157</v>
+        <v>700.0682</v>
       </c>
       <c r="H9" s="1">
-        <v>85453.3039</v>
+        <v>85110.894</v>
       </c>
       <c r="I9" s="1">
-        <v>1564.9093</v>
+        <v>1561.776</v>
       </c>
       <c r="J9" s="1">
-        <v>87018.2132</v>
+        <v>86672.67</v>
       </c>
       <c r="K9" s="1">
-        <v>70448.273</v>
+        <v>70447.376</v>
       </c>
       <c r="L9" s="1">
-        <v>12.1196</v>
+        <v>12.1439</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10312.9819</v>
+        <v>-10312.3552</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0023</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>13.8109</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E10" s="1">
-        <v>6514.2702</v>
+        <v>6501.1325</v>
       </c>
       <c r="F10" s="1">
-        <v>746.7277</v>
+        <v>745.1878</v>
       </c>
       <c r="H10" s="1">
-        <v>89967.9339</v>
+        <v>89607.0592</v>
       </c>
       <c r="I10" s="1">
-        <v>1251.9274</v>
+        <v>1249.4208</v>
       </c>
       <c r="J10" s="1">
-        <v>91219.8613</v>
+        <v>90856.48</v>
       </c>
       <c r="K10" s="1">
-        <v>80761.2549</v>
+        <v>80759.73119999999</v>
       </c>
       <c r="L10" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>5231.479</v>
+        <v>5220.9578</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5081.5028</v>
+        <v>-5091.3974</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0598</v>
+        <v>-0.0602</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>13.9322</v>
       </c>
       <c r="C11" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D11" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E11" s="1">
-        <v>7260.9979</v>
+        <v>7246.3202</v>
       </c>
       <c r="F11" s="1">
-        <v>865.3916</v>
+        <v>863.3659</v>
       </c>
       <c r="H11" s="1">
-        <v>101161.6748</v>
+        <v>100755.0103</v>
       </c>
       <c r="I11" s="1">
-        <v>6170.4246</v>
+        <v>6158.0234</v>
       </c>
       <c r="J11" s="1">
-        <v>107332.0994</v>
+        <v>106913.0337</v>
       </c>
       <c r="K11" s="1">
-        <v>91074.23669999999</v>
+        <v>91072.0864</v>
       </c>
       <c r="L11" s="1">
-        <v>12.5429</v>
+        <v>12.568</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12056.8082</v>
+        <v>-12052.6745</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0604</v>
+        <v>0.0601</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>12.5846</v>
       </c>
       <c r="C12" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D12" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E12" s="1">
-        <v>8126.3894</v>
+        <v>8109.6861</v>
       </c>
       <c r="F12" s="1">
-        <v>958.0605</v>
+        <v>955.8181</v>
       </c>
       <c r="H12" s="1">
-        <v>102267.3606</v>
+        <v>101852.792</v>
       </c>
       <c r="I12" s="1">
-        <v>4113.6164</v>
+        <v>4105.3489</v>
       </c>
       <c r="J12" s="1">
-        <v>106380.977</v>
+        <v>105958.141</v>
       </c>
       <c r="K12" s="1">
-        <v>103131.0449</v>
+        <v>103124.7609</v>
       </c>
       <c r="L12" s="1">
-        <v>12.6909</v>
+        <v>12.7162</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12056.8082</v>
+        <v>-12052.6745</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.09329999999999999</v>
+        <v>-0.09370000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>12.2867</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E13" s="1">
-        <v>9084.4499</v>
+        <v>9065.504199999999</v>
       </c>
       <c r="F13" s="1">
-        <v>981.2894</v>
+        <v>978.9928</v>
       </c>
       <c r="H13" s="1">
-        <v>111617.9111</v>
+        <v>111162.1189</v>
       </c>
       <c r="I13" s="1">
-        <v>2056.8082</v>
+        <v>2052.6745</v>
       </c>
       <c r="J13" s="1">
-        <v>113674.7193</v>
+        <v>113214.7934</v>
       </c>
       <c r="K13" s="1">
-        <v>115187.8531</v>
+        <v>115177.4353</v>
       </c>
       <c r="L13" s="1">
-        <v>12.6797</v>
+        <v>12.705</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3656.8752</v>
+        <v>3649.3588</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8399.933000000001</v>
+        <v>-8403.315699999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0233</v>
+        <v>-0.0237</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>13.0645</v>
       </c>
       <c r="C14" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D14" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E14" s="1">
-        <v>10065.7393</v>
+        <v>10044.497</v>
       </c>
       <c r="F14" s="1">
-        <v>-10065.7393</v>
+        <v>-10044.497</v>
       </c>
       <c r="H14" s="1">
-        <v>131503.8514</v>
+        <v>130964.17</v>
       </c>
       <c r="I14" s="1">
-        <v>3656.8752</v>
+        <v>3649.3588</v>
       </c>
       <c r="J14" s="1">
-        <v>135160.7266</v>
+        <v>134613.5287</v>
       </c>
       <c r="K14" s="1">
-        <v>127244.6613</v>
+        <v>127230.1098</v>
       </c>
       <c r="L14" s="1">
-        <v>12.6414</v>
+        <v>12.6666</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131503.8514</v>
+        <v>130964.17</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0929</v>
+        <v>0.0925</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1385,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>11.0872</v>
       </c>
       <c r="C2" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D2" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>901.941</v>
+        <v>900.1386</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>11.0976</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E3" s="1">
-        <v>901.941</v>
+        <v>900.1386</v>
       </c>
       <c r="F3" s="1">
-        <v>900.2505</v>
+        <v>899.2967</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10009.3802</v>
+        <v>9969.3953</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10009.3802</v>
+        <v>9969.3953</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9990.6198</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0009</v>
+        <v>-0.0031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>10.8505</v>
       </c>
       <c r="C4" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D4" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E4" s="1">
-        <v>1802.1915</v>
+        <v>1799.4354</v>
       </c>
       <c r="F4" s="1">
-        <v>922.481</v>
+        <v>919.7686</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19554.6785</v>
+        <v>19485.7257</v>
       </c>
       <c r="I4" s="1">
-        <v>9.3802</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19564.0587</v>
+        <v>19485.7257</v>
       </c>
       <c r="K4" s="1">
-        <v>19990.6198</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0924</v>
+        <v>11.1146</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>405.8734</v>
+        <v>405.0624</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9603.5067</v>
+        <v>-9594.937599999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0223</v>
+        <v>-0.0242</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>11.8576</v>
       </c>
       <c r="C5" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D5" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E5" s="1">
-        <v>2724.6725</v>
+        <v>2719.204</v>
       </c>
       <c r="F5" s="1">
-        <v>648.6914</v>
+        <v>660.9159</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>32308.0763</v>
+        <v>32178.7877</v>
       </c>
       <c r="I5" s="1">
-        <v>405.8734</v>
+        <v>405.0624</v>
       </c>
       <c r="J5" s="1">
-        <v>32713.9498</v>
+        <v>32583.8501</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.0105</v>
+        <v>11.0326</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7691.9237</v>
+        <v>-7852.6058</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1065</v>
+        <v>0.1051</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>12.5699</v>
       </c>
       <c r="C6" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D6" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E6" s="1">
-        <v>3373.3639</v>
+        <v>3380.1198</v>
       </c>
       <c r="F6" s="1">
-        <v>604.3925</v>
+        <v>605.5954</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>42402.8471</v>
+        <v>42402.9272</v>
       </c>
       <c r="I6" s="1">
-        <v>2713.9498</v>
+        <v>2552.4566</v>
       </c>
       <c r="J6" s="1">
-        <v>45116.7969</v>
+        <v>44955.3838</v>
       </c>
       <c r="K6" s="1">
-        <v>37691.9237</v>
+        <v>37852.6058</v>
       </c>
       <c r="L6" s="1">
-        <v>11.1734</v>
+        <v>11.1986</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7597.1529</v>
+        <v>-7627.5343</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0563</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>13.5994</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E7" s="1">
-        <v>3977.7564</v>
+        <v>3985.7152</v>
       </c>
       <c r="F7" s="1">
-        <v>434.203</v>
+        <v>435.0861</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>54095.1002</v>
+        <v>54094.9238</v>
       </c>
       <c r="I7" s="1">
-        <v>5116.7969</v>
+        <v>4924.9223</v>
       </c>
       <c r="J7" s="1">
-        <v>59211.8971</v>
+        <v>59019.8461</v>
       </c>
       <c r="K7" s="1">
-        <v>45289.0766</v>
+        <v>45480.1401</v>
       </c>
       <c r="L7" s="1">
-        <v>11.3856</v>
+        <v>11.4108</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1518.0138</v>
+        <v>1521.0539</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-4386.886</v>
+        <v>-4407.691</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0743</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>14.6663</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E8" s="1">
-        <v>4411.9594</v>
+        <v>4420.8013</v>
       </c>
       <c r="F8" s="1">
-        <v>360.8872</v>
+        <v>361.5994</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>64707.1194</v>
+        <v>64707.2693</v>
       </c>
       <c r="I8" s="1">
-        <v>10729.9108</v>
+        <v>10517.2314</v>
       </c>
       <c r="J8" s="1">
-        <v>75437.0303</v>
+        <v>75224.5006</v>
       </c>
       <c r="K8" s="1">
-        <v>51193.9764</v>
+        <v>51408.8849</v>
       </c>
       <c r="L8" s="1">
-        <v>11.6035</v>
+        <v>11.6289</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-5292.8806</v>
+        <v>-5313.9566</v>
       </c>
       <c r="Q8" s="3">
         <v>0.08989999999999999</v>
@@ -1821,34 +1821,34 @@
         <v>14.701</v>
       </c>
       <c r="C9" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D9" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E9" s="1">
-        <v>4772.8466</v>
+        <v>4782.4008</v>
       </c>
       <c r="F9" s="1">
-        <v>668.9601</v>
+        <v>670.3106</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70165.61780000001</v>
+        <v>70165.4711</v>
       </c>
       <c r="I9" s="1">
-        <v>15437.0303</v>
+        <v>15203.2747</v>
       </c>
       <c r="J9" s="1">
-        <v>85602.64810000001</v>
+        <v>85368.7458</v>
       </c>
       <c r="K9" s="1">
-        <v>56486.8569</v>
+        <v>56722.8416</v>
       </c>
       <c r="L9" s="1">
-        <v>11.835</v>
+        <v>11.8607</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9834.3822</v>
+        <v>-9874.010200000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0019</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>13.8109</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E10" s="1">
-        <v>5441.8067</v>
+        <v>5452.7114</v>
       </c>
       <c r="F10" s="1">
-        <v>1074.7853</v>
+        <v>1076.9296</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>75156.2479</v>
+        <v>75156.35649999999</v>
       </c>
       <c r="I10" s="1">
-        <v>15602.6481</v>
+        <v>15329.2645</v>
       </c>
       <c r="J10" s="1">
-        <v>90758.8959</v>
+        <v>90485.621</v>
       </c>
       <c r="K10" s="1">
-        <v>66321.23910000001</v>
+        <v>66596.8518</v>
       </c>
       <c r="L10" s="1">
-        <v>12.1874</v>
+        <v>12.2135</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>4295.5619</v>
+        <v>4304.1607</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10548.1902</v>
+        <v>-10599.037</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0507</v>
+        <v>-0.0512</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>13.9322</v>
       </c>
       <c r="C11" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D11" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E11" s="1">
-        <v>6516.592</v>
+        <v>6529.6409</v>
       </c>
       <c r="F11" s="1">
-        <v>661.0254</v>
+        <v>662.3788</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90790.4626</v>
+        <v>90790.0866</v>
       </c>
       <c r="I11" s="1">
-        <v>15054.4579</v>
+        <v>14730.2275</v>
       </c>
       <c r="J11" s="1">
-        <v>105844.9205</v>
+        <v>105520.314</v>
       </c>
       <c r="K11" s="1">
-        <v>81164.99129999999</v>
+        <v>81500.04949999999</v>
       </c>
       <c r="L11" s="1">
-        <v>12.4551</v>
+        <v>12.4816</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9209.537399999999</v>
+        <v>-9246.8742</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0505</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>12.5846</v>
       </c>
       <c r="C12" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D12" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E12" s="1">
-        <v>7177.6173</v>
+        <v>7192.0197</v>
       </c>
       <c r="F12" s="1">
-        <v>1563.2247</v>
+        <v>1566.3604</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>90327.44289999999</v>
+        <v>90327.45269999999</v>
       </c>
       <c r="I12" s="1">
-        <v>15844.9205</v>
+        <v>15483.3533</v>
       </c>
       <c r="J12" s="1">
-        <v>106172.3634</v>
+        <v>105810.806</v>
       </c>
       <c r="K12" s="1">
-        <v>90374.5287</v>
+        <v>90746.9237</v>
       </c>
       <c r="L12" s="1">
-        <v>12.5912</v>
+        <v>12.6177</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-19672.5571</v>
+        <v>-19751.4919</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0835</v>
+        <v>-0.08409999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>12.2867</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E13" s="1">
-        <v>8740.842000000001</v>
+        <v>8758.3802</v>
       </c>
       <c r="F13" s="1">
-        <v>1025.8163</v>
+        <v>1027.8718</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>107396.1032</v>
+        <v>107396.1336</v>
       </c>
       <c r="I13" s="1">
-        <v>6172.3634</v>
+        <v>5731.8614</v>
       </c>
       <c r="J13" s="1">
-        <v>113568.4665</v>
+        <v>113127.995</v>
       </c>
       <c r="K13" s="1">
-        <v>110047.0858</v>
+        <v>110498.4156</v>
       </c>
       <c r="L13" s="1">
-        <v>12.59</v>
+        <v>12.6163</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3229.9278</v>
+        <v>3236.4089</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9373.968999999999</v>
+        <v>-9418.0288</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0224</v>
+        <v>-0.0232</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>13.0645</v>
       </c>
       <c r="C14" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D14" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E14" s="1">
-        <v>9766.658299999999</v>
+        <v>9786.251899999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9766.658299999999</v>
+        <v>-9786.251899999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127596.5068</v>
+        <v>127597.0674</v>
       </c>
       <c r="I14" s="1">
-        <v>6798.3943</v>
+        <v>6313.8326</v>
       </c>
       <c r="J14" s="1">
-        <v>134394.9011</v>
+        <v>133910.9</v>
       </c>
       <c r="K14" s="1">
-        <v>122650.9826</v>
+        <v>123152.8533</v>
       </c>
       <c r="L14" s="1">
-        <v>12.5581</v>
+        <v>12.5843</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127596.5068</v>
+        <v>127597.0674</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0876</v>
@@ -2224,16 +2224,16 @@
         <v>11.0872</v>
       </c>
       <c r="C2" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D2" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>901.941</v>
+        <v>900.1386</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>11.0976</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E3" s="1">
-        <v>901.941</v>
+        <v>900.1386</v>
       </c>
       <c r="F3" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10009.3802</v>
+        <v>9969.3953</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10009.3802</v>
+        <v>9969.3953</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0009</v>
+        <v>-0.0031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>10.8505</v>
       </c>
       <c r="C4" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D4" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E4" s="1">
-        <v>1803.0367</v>
+        <v>1799.4354</v>
       </c>
       <c r="F4" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19563.8498</v>
+        <v>19485.7257</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19563.8498</v>
+        <v>19485.7257</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0924</v>
+        <v>11.1146</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>405.8734</v>
+        <v>405.0624</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9594.1266</v>
+        <v>-9594.937599999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0223</v>
+        <v>-0.0242</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>11.8576</v>
       </c>
       <c r="C5" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D5" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E5" s="1">
-        <v>2724.6532</v>
+        <v>2719.204</v>
       </c>
       <c r="F5" s="1">
-        <v>674.0954</v>
+        <v>686.3514</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>32307.8481</v>
+        <v>32178.7877</v>
       </c>
       <c r="I5" s="1">
-        <v>405.8734</v>
+        <v>405.0624</v>
       </c>
       <c r="J5" s="1">
-        <v>32713.7215</v>
+        <v>32583.8501</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.0106</v>
+        <v>11.0326</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7993.1532</v>
+        <v>-8154.8152</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1065</v>
+        <v>0.1051</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>12.5699</v>
       </c>
       <c r="C6" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D6" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E6" s="1">
-        <v>3398.7486</v>
+        <v>3405.5553</v>
       </c>
       <c r="F6" s="1">
-        <v>618.9847</v>
+        <v>620.2168</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>42721.9299</v>
+        <v>42722.0105</v>
       </c>
       <c r="I6" s="1">
-        <v>2412.7203</v>
+        <v>2250.2472</v>
       </c>
       <c r="J6" s="1">
-        <v>45134.6501</v>
+        <v>44972.2577</v>
       </c>
       <c r="K6" s="1">
-        <v>37993.1532</v>
+        <v>38154.8152</v>
       </c>
       <c r="L6" s="1">
-        <v>11.1786</v>
+        <v>11.2037</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7780.5764</v>
+        <v>-7811.6926</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0567</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>13.5994</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E7" s="1">
-        <v>4017.7333</v>
+        <v>4025.7721</v>
       </c>
       <c r="F7" s="1">
-        <v>449.7446</v>
+        <v>450.659</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>54638.7627</v>
+        <v>54638.5845</v>
       </c>
       <c r="I7" s="1">
-        <v>4632.1439</v>
+        <v>4438.5545</v>
       </c>
       <c r="J7" s="1">
-        <v>59270.9066</v>
+        <v>59077.1391</v>
       </c>
       <c r="K7" s="1">
-        <v>45773.7296</v>
+        <v>45966.5079</v>
       </c>
       <c r="L7" s="1">
-        <v>11.3929</v>
+        <v>11.4181</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1529.4369</v>
+        <v>1532.4999</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-4586.8192</v>
+        <v>-4608.4502</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.075</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>14.6663</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E8" s="1">
-        <v>4467.4779</v>
+        <v>4476.4311</v>
       </c>
       <c r="F8" s="1">
-        <v>377.561</v>
+        <v>378.3064</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>65521.3709</v>
+        <v>65521.5227</v>
       </c>
       <c r="I8" s="1">
-        <v>10045.3247</v>
+        <v>9830.104300000001</v>
       </c>
       <c r="J8" s="1">
-        <v>75566.69560000001</v>
+        <v>75351.62699999999</v>
       </c>
       <c r="K8" s="1">
-        <v>51889.9856</v>
+        <v>52107.4579</v>
       </c>
       <c r="L8" s="1">
-        <v>11.6151</v>
+        <v>11.6404</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-5537.4229</v>
+        <v>-5559.4778</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.09089999999999999</v>
+        <v>0.09080000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>14.701</v>
       </c>
       <c r="C9" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D9" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E9" s="1">
-        <v>4845.0389</v>
+        <v>4854.7376</v>
       </c>
       <c r="F9" s="1">
-        <v>692.9577</v>
+        <v>694.3564</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71226.9167</v>
+        <v>71226.7678</v>
       </c>
       <c r="I9" s="1">
-        <v>14507.9017</v>
+        <v>14270.6265</v>
       </c>
       <c r="J9" s="1">
-        <v>85734.81849999999</v>
+        <v>85497.3943</v>
       </c>
       <c r="K9" s="1">
-        <v>57427.4086</v>
+        <v>57666.9357</v>
       </c>
       <c r="L9" s="1">
-        <v>11.8528</v>
+        <v>11.8785</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10187.1711</v>
+        <v>-10228.2176</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.002</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>13.8109</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E10" s="1">
-        <v>5537.9966</v>
+        <v>5549.094</v>
       </c>
       <c r="F10" s="1">
-        <v>1110.4592</v>
+        <v>1112.6748</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>76484.71709999999</v>
+        <v>76484.8276</v>
       </c>
       <c r="I10" s="1">
-        <v>14320.7306</v>
+        <v>14042.4089</v>
       </c>
       <c r="J10" s="1">
-        <v>90805.4477</v>
+        <v>90527.2365</v>
       </c>
       <c r="K10" s="1">
-        <v>67614.5797</v>
+        <v>67895.1534</v>
       </c>
       <c r="L10" s="1">
-        <v>12.2092</v>
+        <v>12.2354</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>4360.535</v>
+        <v>4369.2638</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10975.9062</v>
+        <v>-11028.5978</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0515</v>
+        <v>-0.052</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>13.9322</v>
       </c>
       <c r="C11" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D11" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E11" s="1">
-        <v>6648.4558</v>
+        <v>6661.7688</v>
       </c>
       <c r="F11" s="1">
-        <v>692.8301</v>
+        <v>694.2479</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92627.61599999999</v>
+        <v>92627.2323</v>
       </c>
       <c r="I11" s="1">
-        <v>13344.8244</v>
+        <v>13013.8111</v>
       </c>
       <c r="J11" s="1">
-        <v>105972.4404</v>
+        <v>105641.0435</v>
       </c>
       <c r="K11" s="1">
-        <v>82951.0209</v>
+        <v>83293.015</v>
       </c>
       <c r="L11" s="1">
-        <v>12.4767</v>
+        <v>12.5031</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9652.6481</v>
+        <v>-9691.7708</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0513</v>
+        <v>0.0509</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>12.5846</v>
       </c>
       <c r="C12" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D12" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E12" s="1">
-        <v>7341.2859</v>
+        <v>7356.0168</v>
       </c>
       <c r="F12" s="1">
-        <v>1621.3879</v>
+        <v>1624.6404</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>92387.1471</v>
+        <v>92387.1571</v>
       </c>
       <c r="I12" s="1">
-        <v>13692.1763</v>
+        <v>13322.0403</v>
       </c>
       <c r="J12" s="1">
-        <v>106079.3235</v>
+        <v>105709.1975</v>
       </c>
       <c r="K12" s="1">
-        <v>92603.66899999999</v>
+        <v>92984.7858</v>
       </c>
       <c r="L12" s="1">
-        <v>12.6141</v>
+        <v>12.6406</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-20404.5183</v>
+        <v>-20486.3902</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0853</v>
+        <v>-0.0859</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>12.2867</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E13" s="1">
-        <v>8962.6739</v>
+        <v>8980.6571</v>
       </c>
       <c r="F13" s="1">
-        <v>1077.0947</v>
+        <v>1042.591</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>110121.6849</v>
+        <v>110121.716</v>
       </c>
       <c r="I13" s="1">
-        <v>3287.6581</v>
+        <v>2835.6502</v>
       </c>
       <c r="J13" s="1">
-        <v>113409.3429</v>
+        <v>112957.3662</v>
       </c>
       <c r="K13" s="1">
-        <v>113008.1872</v>
+        <v>113471.1759</v>
       </c>
       <c r="L13" s="1">
-        <v>12.6088</v>
+        <v>12.6351</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3303.5787</v>
+        <v>3310.2075</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9930.360199999999</v>
+        <v>-9525.4426</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.023</v>
+        <v>-0.0238</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>13.0645</v>
       </c>
       <c r="C14" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D14" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E14" s="1">
-        <v>10039.7685</v>
+        <v>10023.2481</v>
       </c>
       <c r="F14" s="1">
-        <v>-10039.7685</v>
+        <v>-10023.2481</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>131164.5557</v>
+        <v>130687.1182</v>
       </c>
       <c r="I14" s="1">
-        <v>3357.2979</v>
+        <v>3310.2075</v>
       </c>
       <c r="J14" s="1">
-        <v>134521.8535</v>
+        <v>133997.3258</v>
       </c>
       <c r="K14" s="1">
-        <v>126242.1261</v>
+        <v>126306.8261</v>
       </c>
       <c r="L14" s="1">
-        <v>12.5742</v>
+        <v>12.6014</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131164.5557</v>
+        <v>130687.1182</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.09</v>
+        <v>0.0898</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>11.0872</v>
       </c>
       <c r="C2" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D2" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>901.941</v>
+        <v>900.1386</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>11.0976</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E3" s="1">
-        <v>901.941</v>
+        <v>900.1386</v>
       </c>
       <c r="F3" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10009.3802</v>
+        <v>9969.3953</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10009.3802</v>
+        <v>9969.3953</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0009</v>
+        <v>-0.0031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>10.8505</v>
       </c>
       <c r="C4" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D4" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E4" s="1">
-        <v>1803.0367</v>
+        <v>1799.4354</v>
       </c>
       <c r="F4" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19563.8498</v>
+        <v>19485.7257</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19563.8498</v>
+        <v>19485.7257</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0924</v>
+        <v>11.1146</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>405.8734</v>
+        <v>405.0624</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9594.1266</v>
+        <v>-9594.937599999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0223</v>
+        <v>-0.0242</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>11.8576</v>
       </c>
       <c r="C5" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D5" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E5" s="1">
-        <v>2724.6532</v>
+        <v>2719.204</v>
       </c>
       <c r="F5" s="1">
-        <v>699.6493</v>
+        <v>711.9565</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>32307.8481</v>
+        <v>32178.7877</v>
       </c>
       <c r="I5" s="1">
-        <v>405.8734</v>
+        <v>405.0624</v>
       </c>
       <c r="J5" s="1">
-        <v>32713.7215</v>
+        <v>32583.8501</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.0106</v>
+        <v>11.0326</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8296.161899999999</v>
+        <v>-8459.040199999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1065</v>
+        <v>0.1051</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>12.5699</v>
       </c>
       <c r="C6" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D6" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E6" s="1">
-        <v>3424.3026</v>
+        <v>3431.1605</v>
       </c>
       <c r="F6" s="1">
-        <v>633.8085</v>
+        <v>635.0702</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>43043.1407</v>
+        <v>43043.222</v>
       </c>
       <c r="I6" s="1">
-        <v>2109.7115</v>
+        <v>1946.0222</v>
       </c>
       <c r="J6" s="1">
-        <v>45152.8522</v>
+        <v>44989.2441</v>
       </c>
       <c r="K6" s="1">
-        <v>38296.1619</v>
+        <v>38459.0402</v>
       </c>
       <c r="L6" s="1">
-        <v>11.1836</v>
+        <v>11.2088</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7966.9094</v>
+        <v>-7998.7721</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0571</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>13.5994</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E7" s="1">
-        <v>4058.1111</v>
+        <v>4066.2306</v>
       </c>
       <c r="F7" s="1">
-        <v>465.629</v>
+        <v>466.5754</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>55187.8754</v>
+        <v>55187.6955</v>
       </c>
       <c r="I7" s="1">
-        <v>4142.8021</v>
+        <v>3947.25</v>
       </c>
       <c r="J7" s="1">
-        <v>59330.6776</v>
+        <v>59134.9455</v>
       </c>
       <c r="K7" s="1">
-        <v>46263.0713</v>
+        <v>46457.8124</v>
       </c>
       <c r="L7" s="1">
-        <v>11.4001</v>
+        <v>11.4253</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1540.9362</v>
+        <v>1544.0222</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-4791.339</v>
+        <v>-4813.8146</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0757</v>
+        <v>0.07539999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>14.6663</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E8" s="1">
-        <v>4523.7401</v>
+        <v>4532.8061</v>
       </c>
       <c r="F8" s="1">
-        <v>394.7024</v>
+        <v>395.482</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>66346.5289</v>
+        <v>66346.6825</v>
       </c>
       <c r="I8" s="1">
-        <v>9351.463100000001</v>
+        <v>9133.4354</v>
       </c>
       <c r="J8" s="1">
-        <v>75697.992</v>
+        <v>75480.1179</v>
       </c>
       <c r="K8" s="1">
-        <v>52595.3465</v>
+        <v>52815.6492</v>
       </c>
       <c r="L8" s="1">
-        <v>11.6265</v>
+        <v>11.6519</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-5788.8232</v>
+        <v>-5811.8844</v>
       </c>
       <c r="Q8" s="3">
         <v>0.09180000000000001</v>
@@ -3357,34 +3357,34 @@
         <v>14.701</v>
       </c>
       <c r="C9" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D9" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E9" s="1">
-        <v>4918.4424</v>
+        <v>4928.288</v>
       </c>
       <c r="F9" s="1">
-        <v>717.6848</v>
+        <v>719.1332</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>72306.0221</v>
+        <v>72305.87089999999</v>
       </c>
       <c r="I9" s="1">
-        <v>13562.6399</v>
+        <v>13321.551</v>
       </c>
       <c r="J9" s="1">
-        <v>85868.66190000001</v>
+        <v>85627.4219</v>
       </c>
       <c r="K9" s="1">
-        <v>58384.1697</v>
+        <v>58627.5336</v>
       </c>
       <c r="L9" s="1">
-        <v>11.8705</v>
+        <v>11.8961</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10550.6836</v>
+        <v>-10593.1917</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.002</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>13.8109</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E10" s="1">
-        <v>5636.1272</v>
+        <v>5647.4213</v>
       </c>
       <c r="F10" s="1">
-        <v>1147.3028</v>
+        <v>1149.592</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>77839.98880000001</v>
+        <v>77840.10129999999</v>
       </c>
       <c r="I10" s="1">
-        <v>13011.9563</v>
+        <v>12728.3593</v>
       </c>
       <c r="J10" s="1">
-        <v>90851.9451</v>
+        <v>90568.46060000001</v>
       </c>
       <c r="K10" s="1">
-        <v>68934.8533</v>
+        <v>69220.72530000001</v>
       </c>
       <c r="L10" s="1">
-        <v>12.2309</v>
+        <v>12.2571</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>4426.5982</v>
+        <v>4435.4592</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11418.6857</v>
+        <v>-11473.2846</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0523</v>
+        <v>-0.0529</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>13.9322</v>
       </c>
       <c r="C11" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D11" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E11" s="1">
-        <v>6783.4299</v>
+        <v>6797.0132</v>
       </c>
       <c r="F11" s="1">
-        <v>725.9458</v>
+        <v>727.4307</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>94508.1027</v>
+        <v>94507.7113</v>
       </c>
       <c r="I11" s="1">
-        <v>11593.2706</v>
+        <v>11255.0747</v>
       </c>
       <c r="J11" s="1">
-        <v>106101.3734</v>
+        <v>105762.786</v>
       </c>
       <c r="K11" s="1">
-        <v>84780.13710000001</v>
+        <v>85129.4691</v>
       </c>
       <c r="L11" s="1">
-        <v>12.4981</v>
+        <v>12.5245</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10114.0227</v>
+        <v>-10155.0048</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0521</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>12.5846</v>
       </c>
       <c r="C12" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D12" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E12" s="1">
-        <v>7509.3758</v>
+        <v>7524.4439</v>
       </c>
       <c r="F12" s="1">
-        <v>1681.8855</v>
+        <v>1673.3073</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>94502.4906</v>
+        <v>94502.50079999999</v>
       </c>
       <c r="I12" s="1">
-        <v>11479.248</v>
+        <v>11100.07</v>
       </c>
       <c r="J12" s="1">
-        <v>105981.7385</v>
+        <v>105602.5708</v>
       </c>
       <c r="K12" s="1">
-        <v>94894.15979999999</v>
+        <v>95284.4739</v>
       </c>
       <c r="L12" s="1">
-        <v>12.6368</v>
+        <v>12.6633</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-21165.8561</v>
+        <v>-21100.07</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0872</v>
+        <v>-0.0878</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>12.2867</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E13" s="1">
-        <v>9191.2613</v>
+        <v>9197.751200000001</v>
       </c>
       <c r="F13" s="1">
-        <v>839.3948</v>
+        <v>812.2619</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>112930.2699</v>
+        <v>112783.7447</v>
       </c>
       <c r="I13" s="1">
-        <v>313.3919</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>113243.6618</v>
+        <v>112783.7447</v>
       </c>
       <c r="K13" s="1">
-        <v>116060.0159</v>
+        <v>116384.5438</v>
       </c>
       <c r="L13" s="1">
-        <v>12.6272</v>
+        <v>12.6536</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3379.2191</v>
+        <v>3385.9998</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6934.1728</v>
+        <v>-6614.0002</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0236</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>13.0645</v>
       </c>
       <c r="C14" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D14" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E14" s="1">
-        <v>10030.6561</v>
+        <v>10010.0131</v>
       </c>
       <c r="F14" s="1">
-        <v>-10030.6561</v>
+        <v>-10010.0131</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>131045.5061</v>
+        <v>130514.5545</v>
       </c>
       <c r="I14" s="1">
-        <v>3379.2191</v>
+        <v>3385.9998</v>
       </c>
       <c r="J14" s="1">
-        <v>134424.7252</v>
+        <v>133900.5543</v>
       </c>
       <c r="K14" s="1">
-        <v>126373.4078</v>
+        <v>126384.5438</v>
       </c>
       <c r="L14" s="1">
-        <v>12.5987</v>
+        <v>12.6258</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131045.5061</v>
+        <v>130514.5545</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0907</v>
+        <v>0.0905</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>11.0872</v>
       </c>
       <c r="C2" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D2" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>901.941</v>
+        <v>900.1386</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>11.0976</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E3" s="1">
-        <v>901.941</v>
+        <v>900.1386</v>
       </c>
       <c r="F3" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10009.3802</v>
+        <v>9969.3953</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10009.3802</v>
+        <v>9969.3953</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0009</v>
+        <v>-0.0031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>10.8505</v>
       </c>
       <c r="C4" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D4" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E4" s="1">
-        <v>1803.0367</v>
+        <v>1799.4354</v>
       </c>
       <c r="F4" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19563.8498</v>
+        <v>19485.7257</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19563.8498</v>
+        <v>19485.7257</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0924</v>
+        <v>11.1146</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>405.8734</v>
+        <v>405.0624</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9594.1266</v>
+        <v>-9594.937599999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0223</v>
+        <v>-0.0242</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>11.8576</v>
       </c>
       <c r="C5" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D5" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E5" s="1">
-        <v>2724.6532</v>
+        <v>2719.204</v>
       </c>
       <c r="F5" s="1">
-        <v>725.3732</v>
+        <v>737.7319</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>32307.8481</v>
+        <v>32178.7877</v>
       </c>
       <c r="I5" s="1">
-        <v>405.8734</v>
+        <v>405.0624</v>
       </c>
       <c r="J5" s="1">
-        <v>32713.7215</v>
+        <v>32583.8501</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.0106</v>
+        <v>11.0326</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8601.1857</v>
+        <v>-8765.2883</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1065</v>
+        <v>0.1051</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>12.5699</v>
       </c>
       <c r="C6" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D6" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E6" s="1">
-        <v>3450.0265</v>
+        <v>3456.9359</v>
       </c>
       <c r="F6" s="1">
-        <v>648.8661</v>
+        <v>650.1578</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>43366.4876</v>
+        <v>43366.5695</v>
       </c>
       <c r="I6" s="1">
-        <v>1804.6878</v>
+        <v>1639.7741</v>
       </c>
       <c r="J6" s="1">
-        <v>45171.1754</v>
+        <v>45006.3436</v>
       </c>
       <c r="K6" s="1">
-        <v>38601.1857</v>
+        <v>38765.2883</v>
       </c>
       <c r="L6" s="1">
-        <v>11.1887</v>
+        <v>11.2138</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8156.1817</v>
+        <v>-8188.8027</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0575</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>13.5994</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E7" s="1">
-        <v>4098.8925</v>
+        <v>4107.0937</v>
       </c>
       <c r="F7" s="1">
-        <v>481.8617</v>
+        <v>482.8408</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>55742.4791</v>
+        <v>55742.2973</v>
       </c>
       <c r="I7" s="1">
-        <v>3648.5061</v>
+        <v>3450.9714</v>
       </c>
       <c r="J7" s="1">
-        <v>59390.9852</v>
+        <v>59193.2687</v>
       </c>
       <c r="K7" s="1">
-        <v>46757.3673</v>
+        <v>46954.091</v>
       </c>
       <c r="L7" s="1">
-        <v>11.4073</v>
+        <v>11.4324</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1552.5119</v>
+        <v>1555.6212</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-5000.5183</v>
+        <v>-5023.8573</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0765</v>
+        <v>0.0761</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>14.6663</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E8" s="1">
-        <v>4580.7542</v>
+        <v>4589.9345</v>
       </c>
       <c r="F8" s="1">
-        <v>412.3212</v>
+        <v>413.1359</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>67182.716</v>
+        <v>67182.8716</v>
       </c>
       <c r="I8" s="1">
-        <v>8647.987800000001</v>
+        <v>8427.114</v>
       </c>
       <c r="J8" s="1">
-        <v>75830.7038</v>
+        <v>75609.9856</v>
       </c>
       <c r="K8" s="1">
-        <v>53310.3975</v>
+        <v>53533.5695</v>
       </c>
       <c r="L8" s="1">
-        <v>11.6379</v>
+        <v>11.6633</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6047.2259</v>
+        <v>-6071.3214</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>14.701</v>
       </c>
       <c r="C9" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D9" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E9" s="1">
-        <v>4993.0754</v>
+        <v>5003.0704</v>
       </c>
       <c r="F9" s="1">
-        <v>743.1596</v>
+        <v>744.6593</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73403.20170000001</v>
+        <v>73403.0482</v>
       </c>
       <c r="I9" s="1">
-        <v>12600.7619</v>
+        <v>12355.7926</v>
       </c>
       <c r="J9" s="1">
-        <v>86003.9636</v>
+        <v>85758.84080000001</v>
       </c>
       <c r="K9" s="1">
-        <v>59357.6234</v>
+        <v>59604.891</v>
       </c>
       <c r="L9" s="1">
-        <v>11.888</v>
+        <v>11.9137</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10925.1894</v>
+        <v>-10969.2033</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.002</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>13.8109</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E10" s="1">
-        <v>5736.235</v>
+        <v>5747.7297</v>
       </c>
       <c r="F10" s="1">
-        <v>1185.3499</v>
+        <v>1187.7151</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>79222.5683</v>
+        <v>79222.6828</v>
       </c>
       <c r="I10" s="1">
-        <v>11675.5725</v>
+        <v>11386.5893</v>
       </c>
       <c r="J10" s="1">
-        <v>90898.14079999999</v>
+        <v>90609.272</v>
       </c>
       <c r="K10" s="1">
-        <v>70282.8129</v>
+        <v>70574.0943</v>
       </c>
       <c r="L10" s="1">
-        <v>12.2524</v>
+        <v>12.2786</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>4493.7679</v>
+        <v>4502.7634</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11876.9808</v>
+        <v>-11933.5514</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0532</v>
+        <v>-0.0538</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>13.9322</v>
       </c>
       <c r="C11" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D11" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E11" s="1">
-        <v>6921.5849</v>
+        <v>6935.4448</v>
       </c>
       <c r="F11" s="1">
-        <v>760.4191</v>
+        <v>761.9737</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>96432.90519999999</v>
+        <v>96432.5058</v>
       </c>
       <c r="I11" s="1">
-        <v>9798.591700000001</v>
+        <v>9453.0378</v>
       </c>
       <c r="J11" s="1">
-        <v>106231.4969</v>
+        <v>105885.5436</v>
       </c>
       <c r="K11" s="1">
-        <v>86653.5615</v>
+        <v>87010.4091</v>
       </c>
       <c r="L11" s="1">
-        <v>12.5193</v>
+        <v>12.5458</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10594.3115</v>
+        <v>-10637.2291</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0529</v>
+        <v>0.0524</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>12.5846</v>
       </c>
       <c r="C12" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D12" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E12" s="1">
-        <v>7682.004</v>
+        <v>7697.4185</v>
       </c>
       <c r="F12" s="1">
-        <v>1526.0144</v>
+        <v>1492.1576</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>96674.948</v>
+        <v>96674.95849999999</v>
       </c>
       <c r="I12" s="1">
-        <v>9204.280199999999</v>
+        <v>8815.808800000001</v>
       </c>
       <c r="J12" s="1">
-        <v>105879.2282</v>
+        <v>105490.7673</v>
       </c>
       <c r="K12" s="1">
-        <v>97247.87300000001</v>
+        <v>97647.6381</v>
       </c>
       <c r="L12" s="1">
-        <v>12.6592</v>
+        <v>12.6858</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-19204.2802</v>
+        <v>-18815.8088</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0891</v>
+        <v>-0.0897</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>12.2867</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E13" s="1">
-        <v>9208.018400000001</v>
+        <v>9189.5761</v>
       </c>
       <c r="F13" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>113136.1596</v>
+        <v>112683.5015</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>113136.1596</v>
+        <v>112683.5015</v>
       </c>
       <c r="K13" s="1">
-        <v>116452.1532</v>
+        <v>116463.4469</v>
       </c>
       <c r="L13" s="1">
-        <v>12.6468</v>
+        <v>12.6734</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3456.9018</v>
+        <v>3463.8383</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6543.0982</v>
+        <v>-6536.1617</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0237</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>13.0645</v>
       </c>
       <c r="C14" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D14" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E14" s="1">
-        <v>10021.9066</v>
+        <v>10001.838</v>
       </c>
       <c r="F14" s="1">
-        <v>-10021.9066</v>
+        <v>-10001.838</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>130931.1985</v>
+        <v>130407.9651</v>
       </c>
       <c r="I14" s="1">
-        <v>3456.9018</v>
+        <v>3463.8383</v>
       </c>
       <c r="J14" s="1">
-        <v>134388.1003</v>
+        <v>133871.8035</v>
       </c>
       <c r="K14" s="1">
-        <v>126452.1532</v>
+        <v>126463.4469</v>
       </c>
       <c r="L14" s="1">
-        <v>12.6176</v>
+        <v>12.644</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130931.1985</v>
+        <v>130407.9651</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0914</v>
+        <v>0.0912</v>
       </c>
     </row>
   </sheetData>
@@ -4452,9 +4452,9 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>12.6414</v>
+        <v>12.6666</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5581</v>
+        <v>12.5843</v>
       </c>
       <c r="E3" s="1">
-        <v>12.5742</v>
+        <v>12.6014</v>
       </c>
       <c r="F3" s="1">
-        <v>12.5987</v>
+        <v>12.6258</v>
       </c>
       <c r="G3" s="1">
-        <v>12.6176</v>
+        <v>12.644</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.1854</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3066</v>
+        <v>0.2945</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2892</v>
+        <v>0.2783</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2913</v>
+        <v>0.28</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2916</v>
+        <v>0.2803</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2924</v>
+        <v>0.2811</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.201</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2226</v>
+        <v>0.2227</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2048</v>
+        <v>0.2055</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2075</v>
+        <v>0.2083</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2098</v>
+        <v>0.2106</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2121</v>
+        <v>0.2128</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.8215</v>
       </c>
       <c r="C6" s="4">
-        <v>1.2864</v>
+        <v>1.2311</v>
       </c>
       <c r="D6" s="4">
-        <v>1.3131</v>
+        <v>1.2552</v>
       </c>
       <c r="E6" s="4">
-        <v>1.3055</v>
+        <v>1.247</v>
       </c>
       <c r="F6" s="4">
-        <v>1.2926</v>
+        <v>1.2345</v>
       </c>
       <c r="G6" s="4">
-        <v>1.2829</v>
+        <v>1.2257</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2482</v>
+        <v>0.239</v>
       </c>
       <c r="D7" s="3">
-        <v>0.261</v>
+        <v>0.2509</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2581</v>
+        <v>0.2477</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2524</v>
+        <v>0.2422</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2488</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>10901.5366</v>
+        <v>10879.4686</v>
       </c>
       <c r="D8" s="1">
-        <v>9449.376899999999</v>
+        <v>9466.6859</v>
       </c>
       <c r="E8" s="1">
-        <v>9599.424000000001</v>
+        <v>9617.033600000001</v>
       </c>
       <c r="F8" s="1">
-        <v>9752.626899999999</v>
+        <v>9770.543600000001</v>
       </c>
       <c r="G8" s="1">
-        <v>9909.055</v>
+        <v>9927.2853</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P13_KFSDIV.xlsx
+++ b/output/1Y_P13_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>12015.0036</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0609</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1035</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0734</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0654</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.064</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
